--- a/similarities/split_global/harmonic_similarity_timestamps_143.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_143.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'B:min']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3', 'A:min']]</t>
+          <t>['E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:10.583424', '0:01:20.010725')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:12.446000')]</t>
+          <t>('0:00:20.340000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=70.583424']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=20.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb'], ['Ab/5', 'Eb', 'Ab/5']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['G#/C', 'D#', 'G#']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:26.660000', '0:00:30.531000'), ('0:00:18.978000', '0:00:24.727000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:37.740000', '0:00:40.640000'), ('0:00:51.380000', '0:00:55.820000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=26.66', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=37.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=51.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min7/b7', 'C:maj', 'D:min7/b7']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj6/3', 'D', 'G:maj6/3']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.742000', '0:00:22.889000')]</t>
+          <t>('0:00:30.240000', '0:00:38.500000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:07.483197', '0:00:17.641927')]</t>
+          <t>('0:00:00.500000', '0:00:03.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=16.742']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=7.483197']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:38.580000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:40.640000', '0:00:44.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=38.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:03.543000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:13.780000', '0:02:15.340000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:00:08.700000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:22.020000')]</t>
+          <t>('0:01:14.400000', '0:01:32.280000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_42</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+          <t>('0:01:01.300000', '0:01:10.460000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-42#t=20.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['B:7', 'E:maj', 'B:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:03.400000', '0:00:10.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=3.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:09.408834', '0:00:16.560579')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:02:04.702789', '0:02:10.612267')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:13.300000', '0:00:19.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:25.110000', '0:00:28.410000')]</t>
+          <t>('0:00:22.040000', '0:00:28.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=13.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=25.11']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
